--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Ehs_NoiDungDemucChiTietTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Ehs_NoiDungDemucChiTietTemplate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Nhà Thầu</t>
   </si>
@@ -128,6 +128,18 @@
       </rPr>
       <t>2022-09-10</t>
     </r>
+  </si>
+  <si>
+    <t>Mã hiệu máy kiểm tra</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Chi phí(Số tiền)</t>
+  </si>
+  <si>
+    <t>Tiến độ hoàn thành(%)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,11 +211,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -217,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,19 +524,19 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="16" width="31.7109375" customWidth="1"/>
+    <col min="2" max="18" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -529,31 +553,43 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="O1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
@@ -565,26 +601,32 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5">
+      <c r="K2" s="3"/>
+      <c r="L2" s="5">
         <v>42377</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="O2" s="3">
+        <v>50</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -596,7 +638,7 @@
           <x14:formula1>
             <xm:f>DMY!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2 M2</xm:sqref>
+          <xm:sqref>E2:F2 N2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Ehs_NoiDungDemucChiTietTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Ehs_NoiDungDemucChiTietTemplate.xlsx
@@ -30,9 +30,6 @@
     <t>Nhà Thầu</t>
   </si>
   <si>
-    <t>Đơn vị(Chu kỳ)</t>
-  </si>
-  <si>
     <t>Thời gian(Huấn luyện)</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>Ngày Khai Báo(Thiết bị)</t>
   </si>
   <si>
-    <t xml:space="preserve">Công ty ETECH </t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -57,22 +51,37 @@
     <t>Số lượng (thiết bị )</t>
   </si>
   <si>
-    <r>
-      <t>Thông báo trước/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Đơn vị</t>
-    </r>
-  </si>
-  <si>
     <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>ID(Không chỉnh sửa)</t>
+  </si>
+  <si>
+    <t>Nội Dung(Không chỉnh sửa)</t>
+  </si>
+  <si>
+    <t>Vị trí(thiết bị)</t>
+  </si>
+  <si>
+    <t>Ngày kiểm định(yyyy-MM-dd)</t>
+  </si>
+  <si>
+    <t>Mã hiệu máy kiểm tra</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Chi phí(Số tiền)</t>
+  </si>
+  <si>
+    <t>Tiến độ hoàn thành(%)</t>
+  </si>
+  <si>
+    <t>Đơn vị(Lần)</t>
   </si>
   <si>
     <r>
@@ -86,27 +95,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Đơn vị</t>
+      <t>Lần</t>
     </r>
   </si>
   <si>
-    <t>2H</t>
-  </si>
-  <si>
-    <t>ID(Không chỉnh sửa)</t>
-  </si>
-  <si>
-    <t>Nội Dung(Không chỉnh sửa)</t>
-  </si>
-  <si>
-    <t>Vị trí(thiết bị)</t>
-  </si>
-  <si>
-    <t>Ngày kiểm định(yyyy-MM-dd)</t>
-  </si>
-  <si>
     <r>
-      <t>2022-06-10</t>
+      <t>Thông báo trước_</t>
     </r>
     <r>
       <rPr>
@@ -116,30 +110,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve">Đơn vị </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2022-09-10</t>
-    </r>
-  </si>
-  <si>
-    <t>Mã hiệu máy kiểm tra</t>
-  </si>
-  <si>
-    <t>Kết quả</t>
-  </si>
-  <si>
-    <t>Chi phí(Số tiền)</t>
-  </si>
-  <si>
-    <t>Tiến độ hoàn thành(%)</t>
+  </si>
+  <si>
+    <t>Người Phụ Trách</t>
+  </si>
+  <si>
+    <t>ID_NDKH(Không sửa)</t>
   </si>
 </sst>
 </file>
@@ -232,7 +210,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -241,6 +218,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,109 +502,112 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="18" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="19" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="3">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="5">
-        <v>42377</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="3">
-        <v>50</v>
-      </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
       <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -638,7 +619,7 @@
           <x14:formula1>
             <xm:f>DMY!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:F2 N2</xm:sqref>
+          <xm:sqref>F2:G2 O2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -661,17 +642,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Ehs_NoiDungDemucChiTietTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Ehs_NoiDungDemucChiTietTemplate.xlsx
@@ -24,8 +24,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chú Ý:
+Nếu thêm dữ liệu mới thì để trống cột A.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Nhà Thầu</t>
   </si>
@@ -73,9 +108,6 @@
   </si>
   <si>
     <t>Kết quả</t>
-  </si>
-  <si>
-    <t>Chi phí(Số tiền)</t>
   </si>
   <si>
     <t>Tiến độ hoàn thành(%)</t>
@@ -119,12 +151,21 @@
   <si>
     <t>ID_NDKH(Không sửa)</t>
   </si>
+  <si>
+    <t>Add_Them</t>
+  </si>
+  <si>
+    <t>Update_Sua</t>
+  </si>
+  <si>
+    <t>Delete_Xoa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +180,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +216,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -219,6 +285,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,26 +566,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="19" width="31.7109375" customWidth="1"/>
+    <col min="3" max="18" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -529,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>14</v>
@@ -556,25 +624,22 @@
         <v>3</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -607,11 +672,11 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -632,27 +697,39 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
